--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W20_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W20_H100_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4684684684684685</v>
+        <v>0.4804804804804805</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1624530329714126</v>
+        <v>0.1643295443768988</v>
       </c>
       <c r="J2" t="n">
-        <v>2096.107304533764</v>
+        <v>2183.209796796185</v>
       </c>
       <c r="K2" t="n">
-        <v>5509075.558090999</v>
+        <v>6561426.63511086</v>
       </c>
       <c r="L2" t="n">
-        <v>2347.141997854199</v>
+        <v>2561.528183548028</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.02429069382337357</v>
+        <v>-0.2199520899070324</v>
       </c>
     </row>
   </sheetData>
